--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,29 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rander</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SRS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11/08/2025 18:22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,39 @@
           <t>SRS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>11/08/2025 18:22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12/08/2025 17:41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Exposição: 60 anos do Instituto</t>
         </is>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>charles</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>caxambu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12/08/2025 18:41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,168 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cidade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tema</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>io</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>oi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19/08/2025 18:38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exposição: 60 anos do Instituto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
